--- a/gd/目标用户信息/FocusGroup分析报告.xlsx
+++ b/gd/目标用户信息/FocusGroup分析报告.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13005" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13005" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="游戏相关" sheetId="3" r:id="rId3"/>
     <sheet name="其他日常娱乐" sheetId="4" r:id="rId4"/>
     <sheet name="访谈数据分析" sheetId="5" r:id="rId5"/>
+    <sheet name="总结" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1000">
   <si>
     <t>Asian or Pacific Islander</t>
   </si>
@@ -3062,10 +3058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.BF玩家们还是比较遵循游戏设计者思路，追求高产。不同类别的玩家会倾向各自追求，主要分别为追求pve或者pvp；而SW玩家来说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>都一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3131,10 +3123,6 @@
   </si>
   <si>
     <t>有点无聊，不过能自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还可以，不过我更喜欢Unison League，因为同步玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3565,10 +3553,6 @@
   </si>
   <si>
     <t>2.SW玩家在习惯了公共服务器的环境后，对开服过快的Heroes Charge显得游戏不习惯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.大部分人对CACHA系统还是有轻微负面情绪，不过不太影响。好处是平衡了免费付费玩家。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3663,12 +3647,550 @@
     <t>换阵型并不是一个需要时常操作的行为，这样设计其实有可能让玩家觉得烦。一天的游戏中，适当的在Farming中安排一些需要考虑阵型的玩法才是正确的做法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>访谈人群基础属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度玩家（游戏2个月以上，玩法基本接触完全并有一定深度追求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费水平在BF大部分玩家中属于中等水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费水平在SW大部分玩家中属于低等水平，少数调研玩家属于中等水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次调研结果只能表明代表这一部分玩家的观点，其他层次的玩家观点不能一概而论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.大部分人对GACHA系统还是有轻微负面情绪，不过不太影响。好处是平衡了免费付费玩家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BF玩家们还是比较遵循游戏设计者思路，追求高产。不同类别的玩家会倾向各自追求，主要分别为追求pve或者pvp；而SW玩家来说则更加倾向PVE（有可能是竞技场的设计并不尽如人意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以，不过我更喜欢Unison League，因为同步玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在SW的玩家中属于年龄稍高，收入水平较好，学历较高的人群。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看重怪物形象</t>
+  </si>
+  <si>
+    <t>大部分人主要还是社交活动偏多，大多数是陪朋友等</t>
+  </si>
+  <si>
+    <t>喜欢BF的比较喜欢魔幻类，超能力的电影与动漫（较偏向日系）</t>
+  </si>
+  <si>
+    <t>喜欢SW则比较喜欢英雄题材（更偏向美系）</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>最终幻想挺出名啊，卡牌类游戏，不喜欢益智类游戏，竞技类游戏</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>貌似更喜欢主机游戏，移动端：coc类，蛮喜欢益智类游戏</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>主要集中在13-22岁，学历不很高（高中学历较多）</t>
+  </si>
+  <si>
+    <t>SW的目标人群收入普遍低于BF</t>
+  </si>
+  <si>
+    <t>需要较强的策略性</t>
+  </si>
+  <si>
+    <t>主要还是一套固定阵容</t>
+  </si>
+  <si>
+    <t>会通过玩法微调整容</t>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在BF的玩家中属于年龄稍高，收入水平较好，学历较高的人群。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费习惯：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次消费：突破关卡而提升新队员，购买了34.12和64.99的打折礼包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次消费：“抽蛋”为主流，基本形成了消费习惯。由于消费指引及刺激较好，限时礼包和打折礼包也不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普遍因为朋友推荐而玩游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家非常希望能增加社交玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家非常希望能强化社交玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一印象关注点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格及游戏机制（一半一半）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏机制及社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家玩点从最初的了解游戏系统、基础队伍成长，转为了应对各种系统进行的收集、及队伍培养。符合卡牌时RPG的标准设计模式。也证明了此种设计模式在国外亚裔市场同样吃香。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时间分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散点时间设计，SW单次时长相对长一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子：感觉sw的时间分配就没啥规则，基本都是全天开启，所以有时间就要去刷刷刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏系统相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家习惯了宠物合成系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW玩家可能会更习惯大服务器的感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘地下城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘地下城系统设计较有新意但是价值体现不足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法有待研究，玩家评价并不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件驱动玩法（时限活动，触发式活动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏机制，宠物收集，收费指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可挖掘的玩法较多，需要玩家间讨论，即使是社交方式有限的情况下也带来了不错的效果（游戏外论坛，游戏内宠物评价及分享、IM等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵，根据boss选择技能（对应其实都比较直白：boss治疗技能价值较高，就选有削弱治疗技能价值技能的宠物。Boss防御较高，就选无视防御的宠物，boss行动较快就选dot，行动较慢选打速度条的……基本为一一对应，目前未发现复合逻辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品薄弱环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期成长曲线欠佳（待验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶梯型收益设计欠佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交环节薄弱，无法获得及时沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动战斗AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法指引，部分引导过于隐晦，没有在前期交代清楚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机生成系统无保底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交环节欠佳，公会设计玩法较少，交互较少。好友设计存在一定漏洞（如带好友怪物参战的地位显得有些不伦不类，对与低级好友没有额外收益，高级好友只能使用一次。使得好友使用的机会大大减少）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然有IM但仍然无法及时沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时区效应，主要出现在global服务器，处在不同时区的玩家活动不容易在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场方向预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于手游来说，玩家对社交部分的渴望属于刚需，必定会在今后一段时间引导产品趋势，使大部分RPG类、卡牌类游戏项目更关注这一部分，我们也需要洞察市场倾向，并且设计上注意留同步交互的接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子：不太同意的是社交部分，并没有太大的社交需求，在国服的时候好友是够用的，globle服是加好友的难度比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋保底的方式在前次Dota传奇/我是MT2新加坡市场的数据分析中证明在国外市场同样吃香，同时此次FocusGroup调研也辅证了这一点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW流失玩家提到的Unison League（玩家流向）或许值得关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次调研以亚裔玩家为主。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星：大部分人的游戏时间较长，且集中在中午与晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较主观：看着很cool或者很难获得（魔灵中的光暗系），就会认为很强想要培养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课余爱好——小星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物选择——小星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢的游戏——小星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待讨论：什么叫较强的策略性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需确认问题：问题分为两点，主要问题为：认为没有太大社交需求的原因？次要问题为好友部分问题阐述的主要观点是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需确认问题：有何结论？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待讨论：系统时间安排和玩家时间是否契合，系统时间安排较dota传奇来讲优劣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待讨论：我们工作室可能达不到的地方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待讨论：我们工作室能超越的地方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏策略性——小星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对剧情需求程度不高，比较讨厌频繁的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常消费时，无论BF还是SW玩家，购买的主要目标转向了召唤新队员和购买体力，可能是因为游戏机制引导。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论会议主要产出结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做vip系统，只做收费指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要超越竞品的方面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调研dota传奇和魔灵召唤的社交系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送交互，及玩法交互分层奖励设计——需要先做dota传奇，魔灵召唤的社交系统调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情方面不需要特别英雄主义，可以构建比较中二的形象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性为绝大多数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍/人种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚裔为主，主要语种为英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0版本以pve为设计重点，尽能力（不需要达到魔灵层次）做到较为多变及平衡的队伍组合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp考虑在后续版本扩充，设计时需要考虑加入时机及对已有服务器带来的成长影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗AI：需要更稳定，更聪明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家游戏倾向：策略类型，更注重战前准备，也需要一些战中操作及思考的调剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层设计，强制指引（新手教学，各种玩法新增的指引），弱指引，潜移默化的指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育程度：高中-大学为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费水平：中，大R（同dota传奇，月均消费$100~200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考竞品的优势部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情方面弱化一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交需要重视玩家的社交粘滞度部分，需要调研dota传奇、魔灵召唤的社交方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本设计采取弱逻辑玩法设计（数值成长容易度过），活动中20%以下设计较强逻辑玩法（数值成长比较难度过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机生成系统——需要先进一步了解用户需求，坑点减少，道具需求量小-&gt;随机系数变大，道具保值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密地下城类似设计参考（虽然SW做的不够好，但是设计点较有新意，有可能做好的空间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫耀的表现，村落or家园——同时考虑下摸摸？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费点：体力，抽蛋，游戏币，月卡，打折礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve操作和自动采取分层设计，主要为自动设计，控制每天玩家高强度操作副本的次数和一天中各个时间段的分布。星级评价的设计目的体现再此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要面向18~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并不是没有社交需求，而是部分游戏内的社交功能不需要太过复杂，玩家通过外部的社交系统得到了这方面的需求满足。但是设计时还是需要考虑应用其他社交系统带来的隐患，如：拉用户去其他竞品游戏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dota类型更符合设计控制的需求，也可以契合用户需求，设计时可以参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前配置为主，战中策略为辅。分层设计：如：每天重复性副本采取同一阵型，不同玩法可以分为不同阵型，需要玩家比较集中思考的玩法做每天随机副本，需要不同阵型应对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化战斗手动操作比例亦采取分层设计。战前战中在整体玩家一天的玩法中做散点集中分布，如：中午12:00~13:00，晚上18：00~19:00玩法设计做阵型对应玩法，19:00~20：00做手动操作为主的玩法设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于是网络游戏，英雄主义在剧情上参考性比较弱。可以赋予玩家一些类似超能力，魔法一类的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家对策略性游戏兴趣较高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够达到的部分是收费指引部分的设计，其他部分尽力而为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3735,8 +4257,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3746,6 +4276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3764,7 +4300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3813,6 +4349,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3838,17 +4383,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3867,16 +4402,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3891,7 +4422,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$F$8:$F$13</c:f>
@@ -3960,7 +4490,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>用户基础描述!$A$8:$A$13</c:f>
@@ -4030,7 +4559,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>用户基础描述!$A$8:$A$13</c:f>
@@ -4086,66 +4614,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="175"/>
         <c:overlap val="7"/>
-        <c:axId val="377064848"/>
-        <c:axId val="377067200"/>
+        <c:axId val="220016000"/>
+        <c:axId val="220014464"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="377067200"/>
+        <c:axId val="220014464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377064848"/>
+        <c:crossAx val="220016000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="377064848"/>
+        <c:axId val="220016000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377067200"/>
+        <c:crossAx val="220014464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4153,29 +4665,14 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -4190,7 +4687,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$21:$A$36</c:f>
@@ -4305,49 +4801,33 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="380128512"/>
-        <c:axId val="380128904"/>
+        <c:axId val="221297664"/>
+        <c:axId val="221192960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="380128512"/>
+        <c:axId val="221297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380128904"/>
+        <c:crossAx val="221192960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380128904"/>
+        <c:axId val="221192960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380128512"/>
+        <c:crossAx val="221297664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4355,16 +4835,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4372,35 +4849,23 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1140623558418834"/>
-          <c:y val="4.447697033876092E-2"/>
-          <c:w val="0.72529229300882847"/>
+          <c:x val="0.11406235584188347"/>
+          <c:y val="4.4476970338760934E-2"/>
+          <c:w val="0.72529229300882914"/>
           <c:h val="0.93599351346061765"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -4415,7 +4880,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$57:$A$69</c:f>
@@ -4526,7 +4990,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$57:$A$69</c:f>
@@ -4637,7 +5100,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$57:$A$69</c:f>
@@ -4734,65 +5196,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="380123808"/>
-        <c:axId val="380129688"/>
+        <c:axId val="221218688"/>
+        <c:axId val="221220224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="380123808"/>
+        <c:axId val="221218688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380129688"/>
+        <c:crossAx val="221220224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380129688"/>
+        <c:axId val="221220224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380123808"/>
+        <c:crossAx val="221218688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4800,35 +5243,23 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1140623558418834"/>
-          <c:y val="4.447697033876092E-2"/>
-          <c:w val="0.72529229300882847"/>
+          <c:x val="0.11406235584188347"/>
+          <c:y val="4.4476970338760934E-2"/>
+          <c:w val="0.72529229300882914"/>
           <c:h val="0.93599351346061765"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -4843,7 +5274,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$95:$A$97</c:f>
@@ -4894,7 +5324,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$95:$A$97</c:f>
@@ -4945,7 +5374,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$95:$A$97</c:f>
@@ -4982,49 +5410,33 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="380126944"/>
-        <c:axId val="380126160"/>
+        <c:axId val="221786496"/>
+        <c:axId val="221788032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="380126944"/>
+        <c:axId val="221786496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380126160"/>
+        <c:crossAx val="221788032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380126160"/>
+        <c:axId val="221788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380126944"/>
+        <c:crossAx val="221786496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5032,16 +5444,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5049,35 +5458,23 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10800174978127734"/>
-          <c:y val="5.664310170450236E-2"/>
-          <c:w val="0.72529229300882847"/>
+          <c:x val="0.10800174978127755"/>
+          <c:y val="5.6643101704502347E-2"/>
+          <c:w val="0.72529229300882914"/>
           <c:h val="0.93599351346061765"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -5092,7 +5489,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$24:$A$32</c:f>
@@ -5179,7 +5575,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$24:$A$32</c:f>
@@ -5266,7 +5661,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$24:$A$32</c:f>
@@ -5339,65 +5733,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="380123024"/>
-        <c:axId val="380127336"/>
+        <c:axId val="222182400"/>
+        <c:axId val="222221056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="380123024"/>
+        <c:axId val="222182400"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380127336"/>
+        <c:crossAx val="222221056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380127336"/>
+        <c:axId val="222221056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380123024"/>
+        <c:crossAx val="222182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5405,35 +5780,23 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10800174978127734"/>
-          <c:y val="5.664310170450236E-2"/>
-          <c:w val="0.72529229300882847"/>
+          <c:x val="0.10800174978127755"/>
+          <c:y val="5.6643101704502347E-2"/>
+          <c:w val="0.72529229300882914"/>
           <c:h val="0.93599351346061765"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -5448,7 +5811,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$4:$A$6</c:f>
@@ -5499,7 +5861,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$4:$A$6</c:f>
@@ -5550,7 +5911,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>其他日常娱乐!$A$4:$A$6</c:f>
@@ -5587,64 +5947,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="380124200"/>
-        <c:axId val="380123416"/>
+        <c:axId val="222516736"/>
+        <c:axId val="222518272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="380124200"/>
+        <c:axId val="222516736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380123416"/>
+        <c:crossAx val="222518272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380123416"/>
+        <c:axId val="222518272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380124200"/>
+        <c:crossAx val="222516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5652,25 +5994,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -5678,17 +6008,13 @@
             <c:strRef>
               <c:f>用户基础描述!$D$36:$D$37</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>性别分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SW</c:v>
+                  <c:v>性别分布 SW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$38:$A$39</c:f>
@@ -5726,17 +6052,13 @@
             <c:strRef>
               <c:f>用户基础描述!$C$36:$C$37</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>性别分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BF</c:v>
+                  <c:v>性别分布 BF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$38:$A$39</c:f>
@@ -5774,17 +6096,13 @@
             <c:strRef>
               <c:f>用户基础描述!$B$36:$B$37</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>性别分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>总体人数</c:v>
+                  <c:v>性别分布 总体人数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$38:$A$39</c:f>
@@ -5815,64 +6133,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="330538136"/>
-        <c:axId val="330542056"/>
+        <c:axId val="219944448"/>
+        <c:axId val="219945984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330538136"/>
+        <c:axId val="219944448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330542056"/>
+        <c:crossAx val="219945984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330542056"/>
+        <c:axId val="219945984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330538136"/>
+        <c:crossAx val="219944448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5880,25 +6180,13 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -5906,17 +6194,13 @@
             <c:strRef>
               <c:f>用户基础描述!$B$66:$B$67</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>种族分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>总体人数</c:v>
+                  <c:v>种族分布 总体人数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$68:$A$71</c:f>
@@ -5966,17 +6250,13 @@
             <c:strRef>
               <c:f>用户基础描述!$C$66:$C$67</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>种族分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BF</c:v>
+                  <c:v>种族分布 BF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$68:$A$71</c:f>
@@ -6026,17 +6306,13 @@
             <c:strRef>
               <c:f>用户基础描述!$D$66:$D$67</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>种族分布</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SW</c:v>
+                  <c:v>种族分布 SW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$68:$A$71</c:f>
@@ -6079,64 +6355,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379519704"/>
-        <c:axId val="379516176"/>
+        <c:axId val="219979776"/>
+        <c:axId val="219981312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379519704"/>
+        <c:axId val="219979776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379516176"/>
+        <c:crossAx val="219981312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379516176"/>
+        <c:axId val="219981312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379519704"/>
+        <c:crossAx val="219979776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6144,25 +6402,13 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -6177,7 +6423,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$101:$A$104</c:f>
@@ -6234,7 +6479,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$101:$A$104</c:f>
@@ -6291,7 +6535,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$101:$A$104</c:f>
@@ -6334,64 +6577,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379522840"/>
-        <c:axId val="379518528"/>
+        <c:axId val="220752128"/>
+        <c:axId val="220762112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379522840"/>
+        <c:axId val="220752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379518528"/>
+        <c:crossAx val="220762112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379518528"/>
+        <c:axId val="220762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379522840"/>
+        <c:crossAx val="220752128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6399,25 +6624,13 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -6432,7 +6645,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$127:$A$132</c:f>
@@ -6501,7 +6713,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$127:$A$132</c:f>
@@ -6570,7 +6781,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$127:$A$132</c:f>
@@ -6625,64 +6835,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379516960"/>
-        <c:axId val="379517744"/>
+        <c:axId val="220779264"/>
+        <c:axId val="220780800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379516960"/>
+        <c:axId val="220779264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379517744"/>
+        <c:crossAx val="220780800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379517744"/>
+        <c:axId val="220780800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379516960"/>
+        <c:crossAx val="220779264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6690,25 +6882,13 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -6723,7 +6903,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$159:$A$162</c:f>
@@ -6780,7 +6959,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$159:$A$162</c:f>
@@ -6837,7 +7015,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>用户基础描述!$A$159:$A$162</c:f>
@@ -6880,64 +7057,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379521272"/>
-        <c:axId val="379523624"/>
+        <c:axId val="221084672"/>
+        <c:axId val="221098752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379521272"/>
+        <c:axId val="221084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379523624"/>
+        <c:crossAx val="221098752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379523624"/>
+        <c:axId val="221098752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379521272"/>
+        <c:crossAx val="221084672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6945,25 +7104,13 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -6978,7 +7125,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$4:$A$5</c:f>
@@ -7023,7 +7169,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$4:$A$5</c:f>
@@ -7068,7 +7213,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$4:$A$5</c:f>
@@ -7099,65 +7243,46 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379523232"/>
-        <c:axId val="379521664"/>
+        <c:axId val="221159808"/>
+        <c:axId val="221161344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379523232"/>
+        <c:axId val="221159808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379521664"/>
+        <c:crossAx val="221161344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379521664"/>
+        <c:axId val="221161344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379523232"/>
+        <c:crossAx val="221159808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7165,29 +7290,14 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -7202,7 +7312,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$21:$A$36</c:f>
@@ -7317,49 +7426,33 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379516568"/>
-        <c:axId val="379517352"/>
+        <c:axId val="221254400"/>
+        <c:axId val="221255936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379516568"/>
+        <c:axId val="221254400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379517352"/>
+        <c:crossAx val="221255936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379517352"/>
+        <c:axId val="221255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379516568"/>
+        <c:crossAx val="221254400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7367,16 +7460,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7384,29 +7474,14 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7421,7 +7496,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>游戏相关!$A$21:$A$36</c:f>
@@ -7536,49 +7610,33 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379520880"/>
-        <c:axId val="380129296"/>
+        <c:axId val="221280128"/>
+        <c:axId val="221281664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="379520880"/>
+        <c:axId val="221280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380129296"/>
+        <c:crossAx val="221281664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380129296"/>
+        <c:axId val="221281664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379520880"/>
+        <c:crossAx val="221280128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7586,16 +7644,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7934,7 +7989,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8004,7 +8059,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8276,7 +8331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8383,7 +8438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8421,7 +8476,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8459,7 +8514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8497,7 +8552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8560,7 +8615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8592,10 +8647,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8627,7 +8681,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8803,14 +8856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
@@ -8832,92 +8885,92 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="22.5">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -8976,7 +9029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="82.5">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -9035,7 +9088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="49.5">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -9082,7 +9135,7 @@
         <v>263</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>52</v>
@@ -9094,7 +9147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="115.5">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -9138,7 +9191,7 @@
         <v>63</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>65</v>
@@ -9153,7 +9206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="148.5">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -9212,7 +9265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="82.5">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -9259,7 +9312,7 @@
         <v>264</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>83</v>
@@ -9271,7 +9324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="66" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="66">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
@@ -9318,7 +9371,7 @@
         <v>265</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>94</v>
@@ -9330,7 +9383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="214.5">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -9387,7 +9440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="66" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="66">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -9446,12 +9499,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="22.5">
       <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -9502,7 +9555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="66" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="66">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -9561,7 +9614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="49.5">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -9620,7 +9673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="66" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="66">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
@@ -9667,7 +9720,7 @@
         <v>270</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>134</v>
@@ -9679,7 +9732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="49.5">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -9726,7 +9779,7 @@
         <v>271</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>143</v>
@@ -9738,7 +9791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="49.5">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -9785,7 +9838,7 @@
         <v>272</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>151</v>
@@ -9797,7 +9850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="49.5">
       <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
@@ -9856,7 +9909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="82.5">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -9903,7 +9956,7 @@
         <v>277</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>162</v>
@@ -9915,7 +9968,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="33">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -9974,7 +10027,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="49.5">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -10021,7 +10074,7 @@
         <v>274</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>174</v>
@@ -10033,7 +10086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="33">
       <c r="A41" s="1" t="s">
         <v>176</v>
       </c>
@@ -10092,12 +10145,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="20.25">
       <c r="A43" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="3" t="s">
         <v>189</v>
       </c>
@@ -10105,7 +10158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="3" t="s">
         <v>190</v>
       </c>
@@ -10113,7 +10166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="3" t="s">
         <v>191</v>
       </c>
@@ -10129,50 +10182,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="22.5">
       <c r="A1" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="B3" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="B4" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="B5" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="20.25">
       <c r="A6" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>186</v>
       </c>
@@ -10201,7 +10254,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -10233,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -10265,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -10297,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -10329,7 +10382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -10361,7 +10414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -10393,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -10410,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -10427,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -10444,7 +10497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -10461,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>25</v>
       </c>
@@ -10478,7 +10531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>26</v>
       </c>
@@ -10495,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>27</v>
       </c>
@@ -10512,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -10529,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -10546,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -10563,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -10580,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -10597,7 +10650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -10614,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>34</v>
       </c>
@@ -10631,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -10648,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>195</v>
       </c>
@@ -10665,7 +10718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="B31" s="1">
         <f>AVERAGE(基础数据!$B$20:$B$41)</f>
         <v>25.222222222222221</v>
@@ -10679,17 +10732,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" s="8" customFormat="1" ht="20.25">
       <c r="A36" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="3" t="s">
         <v>186</v>
       </c>
@@ -10706,7 +10759,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="1" t="s">
         <v>193</v>
       </c>
@@ -10723,7 +10776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="1" t="s">
         <v>194</v>
       </c>
@@ -10740,39 +10793,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="I62" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:27" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="22.5" customHeight="1"/>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1"/>
+    <row r="66" spans="1:27" s="8" customFormat="1" ht="20.25">
       <c r="A66" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27">
       <c r="A67" s="3" t="s">
         <v>217</v>
       </c>
@@ -10789,7 +10842,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -10806,7 +10859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -10823,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27">
       <c r="A70" s="1" t="s">
         <v>211</v>
       </c>
@@ -10840,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
         <v>213</v>
       </c>
@@ -10854,72 +10907,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27">
       <c r="C72" s="6"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A74" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
+    <row r="75" spans="1:27">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+    <row r="76" spans="1:27">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27">
       <c r="A79" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" s="8" customFormat="1" ht="20.25">
       <c r="A99" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" s="3" customFormat="1" ht="15">
       <c r="A100" s="3" t="s">
         <v>222</v>
       </c>
@@ -10936,7 +10989,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
         <v>225</v>
       </c>
@@ -10950,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
         <v>57</v>
       </c>
@@ -10967,7 +11020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -10984,7 +11037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
         <v>88</v>
       </c>
@@ -11001,27 +11054,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25">
       <c r="A106" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25">
       <c r="A107" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25">
       <c r="A108" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:25" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:25" s="8" customFormat="1" ht="20.25">
       <c r="A125" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:25">
       <c r="A126" s="3" t="s">
         <v>291</v>
       </c>
@@ -11038,7 +11091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
         <v>290</v>
       </c>
@@ -11055,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
         <v>287</v>
       </c>
@@ -11072,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>289</v>
       </c>
@@ -11089,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>288</v>
       </c>
@@ -11106,7 +11159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>285</v>
       </c>
@@ -11123,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>284</v>
       </c>
@@ -11140,17 +11193,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" s="8" customFormat="1" ht="20.25">
       <c r="A157" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>306</v>
       </c>
@@ -11164,7 +11217,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>299</v>
       </c>
@@ -11181,7 +11234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>308</v>
       </c>
@@ -11198,7 +11251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>241</v>
       </c>
@@ -11215,7 +11268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>307</v>
       </c>
@@ -11232,9 +11285,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -11249,24 +11302,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.25">
       <c r="A2" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -11280,7 +11333,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>259</v>
       </c>
@@ -11297,7 +11350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>260</v>
       </c>
@@ -11314,17 +11367,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" s="8" customFormat="1" ht="20.25">
       <c r="A19" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>314</v>
       </c>
@@ -11338,7 +11391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>0.5</v>
       </c>
@@ -11355,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -11372,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>1.5</v>
       </c>
@@ -11389,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -11406,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>2.5</v>
       </c>
@@ -11423,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -11440,7 +11493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>3.5</v>
       </c>
@@ -11457,7 +11510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -11474,7 +11527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>4.5</v>
       </c>
@@ -11491,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -11508,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>5.5</v>
       </c>
@@ -11525,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -11542,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>6.5</v>
       </c>
@@ -11559,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -11576,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>7.5</v>
       </c>
@@ -11593,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
         <v>315</v>
       </c>
@@ -11610,24 +11663,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="20.25">
       <c r="A55" s="7" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>187</v>
@@ -11639,9 +11692,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B57" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A57&amp;"*")</f>
@@ -11656,9 +11709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B58" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A58&amp;"*")</f>
@@ -11673,9 +11726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B59" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A59&amp;"*")</f>
@@ -11690,9 +11743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B60" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A60&amp;"*")</f>
@@ -11707,9 +11760,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B61" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A61&amp;"*")</f>
@@ -11724,9 +11777,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B62" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A62&amp;"*")</f>
@@ -11741,9 +11794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B63" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A63&amp;"*")</f>
@@ -11758,9 +11811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B64" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A64&amp;"*")</f>
@@ -11775,9 +11828,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B65" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A65&amp;"*")</f>
@@ -11792,9 +11845,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B66" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A66&amp;"*")</f>
@@ -11809,9 +11862,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B67" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A67&amp;"*")</f>
@@ -11826,9 +11879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B68" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A68&amp;"*")</f>
@@ -11843,9 +11896,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B69" s="1">
         <f>COUNTIF(基础数据!$O$20:$O$41,"*"&amp;$A69&amp;"*")</f>
@@ -11860,136 +11913,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="B74" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+    <row r="77" spans="1:4">
+      <c r="B77" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:4">
+      <c r="B78" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+    <row r="79" spans="1:4">
+      <c r="B79" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:4">
+      <c r="B80" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="1:4">
+      <c r="B81" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="1:4">
+      <c r="B82" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+    <row r="83" spans="1:4">
+      <c r="B83" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    <row r="84" spans="1:4">
+      <c r="B84" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="85" spans="1:4">
+      <c r="B85" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C84" s="1" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="8" customFormat="1" ht="20.25">
+      <c r="A93" s="7" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>314</v>
       </c>
@@ -12003,9 +12056,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B95" s="1">
         <f>COUNTIF(基础数据!$P$20:$P$41,"="&amp;A95)</f>
@@ -12020,9 +12073,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B96" s="1">
         <f>COUNTIF(基础数据!$P$20:$P$41,"="&amp;A96)</f>
@@ -12037,9 +12090,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B97" s="1">
         <f>COUNTIF(基础数据!$P$20:$P$41,"="&amp;A97)</f>
@@ -12062,24 +12115,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
@@ -12093,9 +12146,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B4" s="1">
         <f>COUNTIF(基础数据!$K$20:$K$41,"="&amp;A4)</f>
@@ -12110,9 +12163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B5" s="1">
         <f>COUNTIF(基础数据!$K$20:$K$41,"="&amp;A5)</f>
@@ -12127,9 +12180,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(基础数据!$K$20:$K$41,"="&amp;基础数据!K24)</f>
@@ -12144,29 +12197,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" s="8" customFormat="1" ht="20.25">
       <c r="A22" s="7" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>187</v>
@@ -12178,9 +12231,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B24" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A24&amp;"*")</f>
@@ -12195,12 +12248,12 @@
         <v>4</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B25" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A25&amp;"*")</f>
@@ -12215,9 +12268,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B26" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A26&amp;"*")</f>
@@ -12232,9 +12285,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B27" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A27&amp;"*")</f>
@@ -12249,9 +12302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B28" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A28&amp;"*")</f>
@@ -12266,9 +12319,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B29" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A29&amp;"*")</f>
@@ -12283,9 +12336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B30" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A30&amp;"*")</f>
@@ -12300,9 +12353,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B31" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A31&amp;"*")</f>
@@ -12317,9 +12370,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B32" s="1">
         <f>COUNTIF(基础数据!$M$20:$M$41,"*"&amp;$A32&amp;"*")</f>
@@ -12334,19 +12387,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -12357,26 +12410,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A384" sqref="A384:XFD384"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="22.5">
       <c r="A1" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="22.5">
       <c r="A2" s="4" t="s">
         <v>319</v>
       </c>
@@ -12390,7 +12443,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="8" customFormat="1">
       <c r="B3" s="8" t="s">
         <v>328</v>
       </c>
@@ -12398,7 +12451,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="C4" s="1" t="s">
         <v>320</v>
       </c>
@@ -12406,7 +12459,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
         <v>321</v>
       </c>
@@ -12414,7 +12467,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="D6" s="1" t="s">
         <v>322</v>
       </c>
@@ -12422,7 +12475,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="D7" s="1" t="s">
         <v>323</v>
       </c>
@@ -12430,7 +12483,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="1" t="s">
         <v>324</v>
       </c>
@@ -12438,7 +12491,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="D9" s="1" t="s">
         <v>325</v>
       </c>
@@ -12446,7 +12499,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="D10" s="1" t="s">
         <v>326</v>
       </c>
@@ -12454,7 +12507,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="D11" s="1" t="s">
         <v>327</v>
       </c>
@@ -12462,52 +12515,52 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="R12" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="R13" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="R14" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="R15" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="R16" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18">
       <c r="C19" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18">
       <c r="D20" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="D21" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="D22" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18" s="8" customFormat="1">
       <c r="B25" s="8" t="s">
         <v>329</v>
       </c>
@@ -12515,12 +12568,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18">
       <c r="Q26" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="D27" s="1" t="s">
         <v>331</v>
       </c>
@@ -12528,7 +12581,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18">
       <c r="C28" s="1" t="s">
         <v>332</v>
       </c>
@@ -12536,7 +12589,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="D29" s="1" t="s">
         <v>333</v>
       </c>
@@ -12544,7 +12597,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="D30" s="1" t="s">
         <v>334</v>
       </c>
@@ -12552,7 +12605,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="D31" s="1" t="s">
         <v>335</v>
       </c>
@@ -12560,7 +12613,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="C32" s="1" t="s">
         <v>336</v>
       </c>
@@ -12568,7 +12621,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:18">
       <c r="D33" s="1" t="s">
         <v>337</v>
       </c>
@@ -12576,12 +12629,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:18">
       <c r="D34" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:18">
       <c r="D35" s="1" t="s">
         <v>344</v>
       </c>
@@ -12589,7 +12642,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:18">
       <c r="D36" s="1" t="s">
         <v>338</v>
       </c>
@@ -12597,7 +12650,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:18">
       <c r="C37" s="1" t="s">
         <v>340</v>
       </c>
@@ -12605,7 +12658,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:18">
       <c r="D38" s="1" t="s">
         <v>341</v>
       </c>
@@ -12613,7 +12666,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:18">
       <c r="D39" s="1" t="s">
         <v>342</v>
       </c>
@@ -12621,7 +12674,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:18">
       <c r="D40" s="1" t="s">
         <v>343</v>
       </c>
@@ -12629,7 +12682,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:18">
       <c r="C41" s="1" t="s">
         <v>345</v>
       </c>
@@ -12637,7 +12690,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:18">
       <c r="D42" s="1" t="s">
         <v>346</v>
       </c>
@@ -12645,17 +12698,17 @@
         <v>556</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:18">
       <c r="R43" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:18">
       <c r="R44" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:18">
       <c r="E45" s="1" t="s">
         <v>450</v>
       </c>
@@ -12663,62 +12716,62 @@
         <v>559</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:18">
       <c r="R46" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:18">
       <c r="R47" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:18">
       <c r="R48" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:18">
       <c r="R51" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:18">
       <c r="C61" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:26">
       <c r="E65" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:26">
       <c r="C68" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:26">
       <c r="D69" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:26">
       <c r="D70" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:26">
       <c r="D71" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:26">
       <c r="D72" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="74" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:26" s="8" customFormat="1">
       <c r="B74" s="8" t="s">
         <v>347</v>
       </c>
@@ -12726,7 +12779,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:26">
       <c r="D75" s="1" t="s">
         <v>348</v>
       </c>
@@ -12752,7 +12805,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:26">
       <c r="D76" s="1" t="s">
         <v>349</v>
       </c>
@@ -12775,7 +12828,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:26">
       <c r="D77" s="1" t="s">
         <v>350</v>
       </c>
@@ -12801,7 +12854,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:26">
       <c r="D78" s="1" t="s">
         <v>351</v>
       </c>
@@ -12815,7 +12868,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:26">
       <c r="D79" s="1" t="s">
         <v>352</v>
       </c>
@@ -12835,7 +12888,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:26">
       <c r="D80" s="1" t="s">
         <v>353</v>
       </c>
@@ -12855,7 +12908,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:21">
       <c r="D81" s="1" t="s">
         <v>354</v>
       </c>
@@ -12872,7 +12925,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:21">
       <c r="D82" s="1" t="s">
         <v>355</v>
       </c>
@@ -12889,7 +12942,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:21">
       <c r="D83" s="1" t="s">
         <v>356</v>
       </c>
@@ -12912,7 +12965,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:21">
       <c r="D84" s="13" t="s">
         <v>361</v>
       </c>
@@ -12923,7 +12976,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:21">
       <c r="C85" s="1" t="s">
         <v>370</v>
       </c>
@@ -12937,7 +12990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:21">
       <c r="D86" s="1" t="s">
         <v>373</v>
       </c>
@@ -12948,7 +13001,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:21">
       <c r="D87" s="1" t="s">
         <v>371</v>
       </c>
@@ -12956,7 +13009,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:21">
       <c r="D88" s="1" t="s">
         <v>372</v>
       </c>
@@ -12964,7 +13017,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:21">
       <c r="D89" s="1" t="s">
         <v>374</v>
       </c>
@@ -12972,7 +13025,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:21">
       <c r="D90" s="1" t="s">
         <v>364</v>
       </c>
@@ -12980,7 +13033,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:21">
       <c r="D91" s="1" t="s">
         <v>375</v>
       </c>
@@ -12988,7 +13041,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:21">
       <c r="D92" s="1" t="s">
         <v>376</v>
       </c>
@@ -12996,7 +13049,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:21">
       <c r="D93" s="1" t="s">
         <v>377</v>
       </c>
@@ -13004,7 +13057,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:21">
       <c r="C94" s="1" t="s">
         <v>378</v>
       </c>
@@ -13012,7 +13065,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:21">
       <c r="D95" s="1" t="s">
         <v>379</v>
       </c>
@@ -13020,7 +13073,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:21">
       <c r="C96" s="1" t="s">
         <v>380</v>
       </c>
@@ -13028,7 +13081,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:18">
       <c r="D97" s="1" t="s">
         <v>381</v>
       </c>
@@ -13036,7 +13089,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:18">
       <c r="C98" s="1" t="s">
         <v>612</v>
       </c>
@@ -13044,7 +13097,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:18">
       <c r="D99" s="1" t="s">
         <v>382</v>
       </c>
@@ -13052,7 +13105,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:18">
       <c r="D100" s="1" t="s">
         <v>383</v>
       </c>
@@ -13060,7 +13113,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:18">
       <c r="D101" s="1" t="s">
         <v>384</v>
       </c>
@@ -13068,82 +13121,82 @@
         <v>604</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:18">
       <c r="R102" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:18">
       <c r="R103" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:18">
       <c r="R104" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:18">
       <c r="R105" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:18">
       <c r="R106" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:18">
       <c r="R107" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:18">
       <c r="R108" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:18">
       <c r="Q110" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:18">
       <c r="R111" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:18">
       <c r="R112" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:21">
       <c r="R113" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:21">
       <c r="R114" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:21">
       <c r="Q115" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:21">
       <c r="R116" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:21">
       <c r="R117" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:21">
       <c r="C118" s="1" t="s">
         <v>448</v>
       </c>
@@ -13151,17 +13204,17 @@
         <v>621</v>
       </c>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:21">
       <c r="D119" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:21">
       <c r="D120" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="122" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:21" s="8" customFormat="1">
       <c r="B122" s="8" t="s">
         <v>400</v>
       </c>
@@ -13169,7 +13222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:21">
       <c r="D123" s="1" t="s">
         <v>385</v>
       </c>
@@ -13180,7 +13233,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:21">
       <c r="D124" s="1" t="s">
         <v>386</v>
       </c>
@@ -13194,7 +13247,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:21">
       <c r="D125" s="1" t="s">
         <v>387</v>
       </c>
@@ -13205,7 +13258,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:21">
       <c r="D126" s="1" t="s">
         <v>388</v>
       </c>
@@ -13213,7 +13266,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:21">
       <c r="D127" s="1" t="s">
         <v>389</v>
       </c>
@@ -13224,7 +13277,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:21">
       <c r="D128" s="1" t="s">
         <v>390</v>
       </c>
@@ -13235,7 +13288,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:18">
       <c r="D129" s="1" t="s">
         <v>392</v>
       </c>
@@ -13243,12 +13296,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:18">
       <c r="D130" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:18">
       <c r="D131" s="1" t="s">
         <v>393</v>
       </c>
@@ -13256,7 +13309,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:18">
       <c r="D132" s="1" t="s">
         <v>394</v>
       </c>
@@ -13264,12 +13317,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:18">
       <c r="R133" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:18">
       <c r="C134" s="1" t="s">
         <v>395</v>
       </c>
@@ -13277,7 +13330,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:18">
       <c r="D135" s="1" t="s">
         <v>396</v>
       </c>
@@ -13285,7 +13338,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:18">
       <c r="D136" s="1" t="s">
         <v>617</v>
       </c>
@@ -13293,7 +13346,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:18">
       <c r="D137" s="1" t="s">
         <v>416</v>
       </c>
@@ -13301,7 +13354,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:18">
       <c r="D138" s="1" t="s">
         <v>397</v>
       </c>
@@ -13309,12 +13362,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:18">
       <c r="D139" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:18">
       <c r="D140" s="1" t="s">
         <v>399</v>
       </c>
@@ -13322,12 +13375,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:18">
       <c r="R141" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:18">
       <c r="C142" s="1" t="s">
         <v>401</v>
       </c>
@@ -13335,47 +13388,47 @@
         <v>641</v>
       </c>
     </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:18">
       <c r="D143" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:18">
       <c r="D144" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:18">
       <c r="C146" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:18">
       <c r="D147" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:18">
       <c r="D148" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:18">
       <c r="D149" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:18">
       <c r="D150" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:18">
       <c r="D151" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="153" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:18" s="8" customFormat="1">
       <c r="B153" s="8" t="s">
         <v>404</v>
       </c>
@@ -13383,7 +13436,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:18">
       <c r="C154" s="1" t="s">
         <v>405</v>
       </c>
@@ -13391,7 +13444,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:18">
       <c r="D155" s="1" t="s">
         <v>406</v>
       </c>
@@ -13399,7 +13452,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:18">
       <c r="D156" s="1" t="s">
         <v>407</v>
       </c>
@@ -13407,7 +13460,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:18">
       <c r="D157" s="1" t="s">
         <v>408</v>
       </c>
@@ -13415,7 +13468,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:18">
       <c r="D158" s="1" t="s">
         <v>409</v>
       </c>
@@ -13423,12 +13476,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:18">
       <c r="R159" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:18">
       <c r="C160" s="1" t="s">
         <v>419</v>
       </c>
@@ -13436,7 +13489,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:18">
       <c r="D161" s="1" t="s">
         <v>410</v>
       </c>
@@ -13444,7 +13497,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:18">
       <c r="D162" s="1" t="s">
         <v>411</v>
       </c>
@@ -13452,7 +13505,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:18">
       <c r="D163" s="1" t="s">
         <v>412</v>
       </c>
@@ -13460,39 +13513,39 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D164" s="17" t="s">
+    <row r="164" spans="3:18">
+      <c r="D164" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
       <c r="R164" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
+    <row r="165" spans="3:18">
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
       <c r="R165" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:18">
       <c r="D166" s="1" t="s">
         <v>418</v>
       </c>
@@ -13500,39 +13553,39 @@
         <v>653</v>
       </c>
     </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D167" s="17" t="s">
+    <row r="167" spans="3:18">
+      <c r="D167" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
       <c r="R167" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
+    <row r="168" spans="3:18">
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
       <c r="R168" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:18">
       <c r="D169" s="1" t="s">
         <v>413</v>
       </c>
@@ -13540,37 +13593,37 @@
         <v>656</v>
       </c>
     </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:18">
       <c r="D170" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:18">
       <c r="D171" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:18">
       <c r="C173" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:18">
       <c r="D174" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.15">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="175" spans="3:18">
       <c r="D175" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:18">
       <c r="D176" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="178" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:18" s="8" customFormat="1">
       <c r="B178" s="8" t="s">
         <v>421</v>
       </c>
@@ -13578,7 +13631,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:18">
       <c r="D179" s="1" t="s">
         <v>422</v>
       </c>
@@ -13586,7 +13639,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:18">
       <c r="D180" s="1" t="s">
         <v>423</v>
       </c>
@@ -13594,12 +13647,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:18">
       <c r="D181" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:18">
       <c r="D182" s="1" t="s">
         <v>425</v>
       </c>
@@ -13607,7 +13660,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:18">
       <c r="C183" s="1" t="s">
         <v>426</v>
       </c>
@@ -13615,7 +13668,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:18">
       <c r="D184" s="1" t="s">
         <v>427</v>
       </c>
@@ -13623,7 +13676,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:18">
       <c r="D185" s="1" t="s">
         <v>430</v>
       </c>
@@ -13631,7 +13684,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:18">
       <c r="D186" s="1" t="s">
         <v>429</v>
       </c>
@@ -13639,7 +13692,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:18">
       <c r="D187" s="1" t="s">
         <v>431</v>
       </c>
@@ -13647,12 +13700,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:18">
       <c r="R188" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:18">
       <c r="C189" s="1" t="s">
         <v>428</v>
       </c>
@@ -13660,12 +13713,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:18">
       <c r="D190" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:18">
       <c r="D191" s="1" t="s">
         <v>433</v>
       </c>
@@ -13673,7 +13726,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:18">
       <c r="D192" s="1" t="s">
         <v>434</v>
       </c>
@@ -13681,12 +13734,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:18">
       <c r="R193" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:18">
       <c r="C194" s="1" t="s">
         <v>435</v>
       </c>
@@ -13694,12 +13747,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:18">
       <c r="D195" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:18">
       <c r="D196" s="1" t="s">
         <v>436</v>
       </c>
@@ -13707,7 +13760,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:18">
       <c r="D197" s="1" t="s">
         <v>437</v>
       </c>
@@ -13715,7 +13768,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:18">
       <c r="D198" s="1" t="s">
         <v>438</v>
       </c>
@@ -13723,12 +13776,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:18">
       <c r="R199" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:18">
       <c r="C200" s="1" t="s">
         <v>440</v>
       </c>
@@ -13736,7 +13789,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:18">
       <c r="D201" s="1" t="s">
         <v>447</v>
       </c>
@@ -13744,7 +13797,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:18">
       <c r="D202" s="1" t="s">
         <v>444</v>
       </c>
@@ -13752,7 +13805,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:18">
       <c r="D203" s="1" t="s">
         <v>443</v>
       </c>
@@ -13760,7 +13813,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:18">
       <c r="D204" s="1" t="s">
         <v>442</v>
       </c>
@@ -13768,7 +13821,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:18">
       <c r="D205" s="1" t="s">
         <v>441</v>
       </c>
@@ -13776,82 +13829,82 @@
         <v>678</v>
       </c>
     </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:18">
       <c r="R206" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:18">
       <c r="R207" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:18">
       <c r="R208" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:18">
       <c r="R209" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:18">
       <c r="Q211" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:18">
       <c r="R212" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18">
       <c r="R213" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:18">
       <c r="R214" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:18">
       <c r="R215" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:18">
       <c r="R216" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:18">
       <c r="R217" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:18">
       <c r="C219" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:18">
       <c r="D220" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:18">
       <c r="D221" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:18">
       <c r="A222" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" s="8" customFormat="1">
       <c r="B223" s="8" t="s">
         <v>459</v>
       </c>
@@ -13859,7 +13912,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:18">
       <c r="D224" s="1" t="s">
         <v>458</v>
       </c>
@@ -13867,7 +13920,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:18">
       <c r="D225" s="1" t="s">
         <v>457</v>
       </c>
@@ -13875,7 +13928,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:18">
       <c r="C226" s="1" t="s">
         <v>460</v>
       </c>
@@ -13883,7 +13936,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:18">
       <c r="D227" s="1" t="s">
         <v>462</v>
       </c>
@@ -13891,7 +13944,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:18">
       <c r="D228" s="13" t="s">
         <v>461</v>
       </c>
@@ -13899,54 +13952,54 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:18">
       <c r="D229" s="13"/>
       <c r="R229" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:18">
       <c r="D230" s="13"/>
       <c r="R230" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:18">
       <c r="D231" s="13"/>
     </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:18">
       <c r="D232" s="13"/>
       <c r="Q232" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:18">
       <c r="D233" s="13"/>
       <c r="R233" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:18">
       <c r="C236" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:18">
       <c r="D237" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.15">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="238" spans="3:18">
       <c r="D238" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.15">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="239" spans="3:18">
       <c r="D239" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="241" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="241" spans="2:18" s="8" customFormat="1">
       <c r="B241" s="8" t="s">
         <v>465</v>
       </c>
@@ -13954,7 +14007,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:18">
       <c r="D242" s="1" t="s">
         <v>463</v>
       </c>
@@ -13962,7 +14015,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:18">
       <c r="D243" s="1" t="s">
         <v>464</v>
       </c>
@@ -13970,7 +14023,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:18">
       <c r="D244" s="1" t="s">
         <v>466</v>
       </c>
@@ -13978,310 +14031,310 @@
         <v>715</v>
       </c>
     </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:18">
       <c r="C245" s="1" t="s">
         <v>467</v>
       </c>
       <c r="R245" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="246" spans="2:18">
       <c r="D246" s="1" t="s">
         <v>468</v>
       </c>
       <c r="R246" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="247" spans="2:18">
       <c r="D247" s="1" t="s">
         <v>469</v>
       </c>
       <c r="R247" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="248" spans="2:18">
+      <c r="R248" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R248" s="1" t="s">
+    <row r="250" spans="2:18">
+      <c r="P250" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="P250" s="1" t="s">
+    <row r="251" spans="2:18">
+      <c r="R251" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R251" s="1" t="s">
+    <row r="252" spans="2:18">
+      <c r="R252" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R252" s="1" t="s">
+    <row r="253" spans="2:18">
+      <c r="R253" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R253" s="1" t="s">
+    <row r="254" spans="2:18">
+      <c r="R254" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R254" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:18">
       <c r="C255" s="1" t="s">
         <v>448</v>
       </c>
       <c r="R255" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.15">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="256" spans="2:18">
       <c r="D256" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="258" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="258" spans="2:18" s="8" customFormat="1">
       <c r="B258" s="8" t="s">
         <v>470</v>
       </c>
       <c r="P258" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.15">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="259" spans="2:18">
       <c r="D259" s="1" t="s">
         <v>471</v>
       </c>
       <c r="R259" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="260" spans="2:18">
       <c r="D260" s="1" t="s">
         <v>472</v>
       </c>
       <c r="R260" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="261" spans="2:18">
       <c r="D261" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:18">
       <c r="D262" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:18">
       <c r="C263" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="264" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:18">
       <c r="D264" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="267" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="267" spans="2:18" s="8" customFormat="1">
       <c r="B267" s="8" t="s">
         <v>475</v>
       </c>
       <c r="P267" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="268" spans="2:18" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="268" spans="2:18">
       <c r="D268" s="14" t="s">
         <v>476</v>
       </c>
       <c r="R268" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="269" spans="2:18" x14ac:dyDescent="0.15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="269" spans="2:18">
       <c r="D269" s="15" t="s">
         <v>477</v>
       </c>
       <c r="R269" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="270" spans="2:18" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="270" spans="2:18">
       <c r="D270" s="1" t="s">
         <v>478</v>
       </c>
       <c r="R270" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="271" spans="2:18" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="271" spans="2:18">
       <c r="D271" s="1" t="s">
         <v>479</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="272" spans="2:18">
       <c r="D272" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:18">
       <c r="D273" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:18">
       <c r="D275" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="277" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="277" spans="2:18" s="8" customFormat="1">
       <c r="B277" s="8" t="s">
         <v>481</v>
       </c>
       <c r="P277" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="278" spans="2:18">
       <c r="D278" s="1" t="s">
         <v>482</v>
       </c>
       <c r="R278" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="279" spans="2:18">
       <c r="D279" s="1" t="s">
         <v>483</v>
       </c>
       <c r="R279" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18">
       <c r="D280" s="1" t="s">
         <v>484</v>
       </c>
       <c r="R280" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="281" spans="2:18">
       <c r="D281" s="1" t="s">
         <v>485</v>
       </c>
       <c r="R281" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="282" spans="2:18">
       <c r="D282" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:18">
       <c r="C284" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:18">
       <c r="D285" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="287" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="287" spans="2:18" s="8" customFormat="1">
       <c r="B287" s="8" t="s">
         <v>487</v>
       </c>
       <c r="P287" s="8" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.15">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="288" spans="2:18">
       <c r="D288" s="1" t="s">
         <v>488</v>
       </c>
       <c r="R288" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="289" spans="2:18" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="289" spans="2:18">
       <c r="D289" s="1" t="s">
         <v>489</v>
       </c>
       <c r="R289" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.15">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="290" spans="2:18">
       <c r="D290" s="1" t="s">
         <v>490</v>
       </c>
       <c r="R290" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="292" spans="2:18" x14ac:dyDescent="0.15">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="292" spans="2:18">
       <c r="C292" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="293" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:18">
       <c r="D293" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="295" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="295" spans="2:18" s="8" customFormat="1">
       <c r="B295" s="8" t="s">
         <v>491</v>
       </c>
       <c r="P295" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.15">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="2:18">
       <c r="D296" s="1" t="s">
         <v>492</v>
       </c>
       <c r="R296" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.15">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="297" spans="2:18">
       <c r="D297" s="1" t="s">
         <v>493</v>
       </c>
       <c r="R297" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.15">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="298" spans="2:18">
       <c r="D298" s="1" t="s">
         <v>496</v>
       </c>
       <c r="R298" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="299" spans="2:18">
       <c r="D299" s="1" t="s">
         <v>494</v>
       </c>
       <c r="R299" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="300" spans="2:18" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="300" spans="2:18">
       <c r="D300" s="1" t="s">
         <v>495</v>
       </c>
@@ -14289,17 +14342,17 @@
         <v>497</v>
       </c>
     </row>
-    <row r="301" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:18">
       <c r="C301" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="302" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:18">
       <c r="D302" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:18">
       <c r="C303" s="1" t="s">
         <v>500</v>
       </c>
@@ -14307,412 +14360,412 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:18">
       <c r="D304" s="1" t="s">
         <v>499</v>
       </c>
       <c r="R304" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
       <c r="C307" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:18">
       <c r="D308" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" s="8" customFormat="1">
       <c r="B309" s="8" t="s">
         <v>504</v>
       </c>
       <c r="P309" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18">
       <c r="D310" s="1" t="s">
         <v>501</v>
       </c>
       <c r="R310" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18">
       <c r="D311" s="1" t="s">
         <v>502</v>
       </c>
       <c r="R311" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
       <c r="D312" s="1" t="s">
         <v>503</v>
       </c>
       <c r="Q312" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
       <c r="D313" s="1" t="s">
         <v>506</v>
       </c>
       <c r="R313" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18">
       <c r="R314" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18">
       <c r="C315" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:18">
       <c r="D316" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" s="8" customFormat="1">
       <c r="B319" s="8" t="s">
         <v>505</v>
       </c>
       <c r="P319" s="8" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
       <c r="D320" s="1" t="s">
         <v>507</v>
       </c>
       <c r="R320" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="321" spans="2:18" x14ac:dyDescent="0.15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="321" spans="2:18">
       <c r="D321" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="322" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:18">
       <c r="D322" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="324" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:18">
       <c r="C324" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="325" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:18">
       <c r="D325" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="327" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="327" spans="2:18" s="8" customFormat="1">
       <c r="B327" s="8" t="s">
         <v>510</v>
       </c>
       <c r="P327" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="328" spans="2:18" x14ac:dyDescent="0.15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="328" spans="2:18">
       <c r="D328" s="1" t="s">
         <v>509</v>
       </c>
       <c r="R328" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="329" spans="2:18" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="329" spans="2:18">
       <c r="D329" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="330" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:18">
       <c r="D330" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="331" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:18">
       <c r="D331" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="332" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:18">
       <c r="D332" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="334" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:18">
       <c r="C334" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="335" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:18">
       <c r="D335" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" s="8" customFormat="1">
       <c r="B337" s="8" t="s">
         <v>521</v>
       </c>
       <c r="P337" s="8" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
       <c r="D338" s="1" t="s">
         <v>524</v>
       </c>
       <c r="R338" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
       <c r="D339" s="1" t="s">
         <v>523</v>
       </c>
       <c r="R339" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18">
       <c r="R340" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
+      <c r="R341" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R341" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:18">
       <c r="C343" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:18">
       <c r="D344" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18">
       <c r="A347" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" s="8" customFormat="1">
       <c r="B348" s="8" t="s">
         <v>520</v>
       </c>
       <c r="P348" s="8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.15">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18">
       <c r="D349" s="1" t="s">
         <v>522</v>
       </c>
       <c r="R349" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.15">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18">
       <c r="D350" s="1" t="s">
         <v>516</v>
       </c>
       <c r="R350" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18">
       <c r="D351" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:18">
       <c r="C352" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="353" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:17">
       <c r="D353" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="355" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="355" spans="2:17" s="8" customFormat="1">
       <c r="B355" s="8" t="s">
         <v>517</v>
       </c>
       <c r="P355" s="8" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="356" spans="2:17" x14ac:dyDescent="0.15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="356" spans="2:17">
       <c r="D356" s="1" t="s">
         <v>518</v>
       </c>
       <c r="Q356" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="357" spans="2:17" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="357" spans="2:17">
       <c r="D357" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="359" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:17">
       <c r="C359" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="360" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:17">
       <c r="D360" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="361" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="361" spans="2:17" s="8" customFormat="1">
       <c r="B361" s="8" t="s">
         <v>525</v>
       </c>
       <c r="P361" s="8" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="362" spans="2:17" x14ac:dyDescent="0.15">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="362" spans="2:17">
       <c r="D362" s="1" t="s">
         <v>479</v>
       </c>
       <c r="Q362" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="363" spans="2:17" x14ac:dyDescent="0.15">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="363" spans="2:17">
       <c r="D363" s="1" t="s">
         <v>479</v>
       </c>
       <c r="Q363" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="364" spans="2:17" x14ac:dyDescent="0.15">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="364" spans="2:17">
       <c r="D364" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="365" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:17">
       <c r="D365" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="367" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:17">
       <c r="C367" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="368" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:17">
       <c r="D368" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="370" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="370" spans="2:18" s="8" customFormat="1">
       <c r="B370" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="P370" s="8" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="371" spans="2:18" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="371" spans="2:18">
       <c r="D371" s="1" t="s">
         <v>528</v>
       </c>
       <c r="R371" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="372" spans="2:18">
+      <c r="R372" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="373" spans="2:18">
+      <c r="R373" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="372" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R372" s="1" t="s">
+    <row r="374" spans="2:18">
+      <c r="R374" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="373" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R373" s="1" t="s">
+    <row r="375" spans="2:18">
+      <c r="R375" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="374" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R374" s="1" t="s">
+    <row r="376" spans="2:18">
+      <c r="R376" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R375" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="376" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R376" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="377" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:18">
       <c r="C377" s="1" t="s">
         <v>448</v>
       </c>
       <c r="R377" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="378" spans="2:18" x14ac:dyDescent="0.15">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="378" spans="2:18">
       <c r="D378" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="380" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="380" spans="2:18" s="8" customFormat="1">
       <c r="B380" s="8" t="s">
         <v>529</v>
       </c>
       <c r="P380" s="8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="381" spans="2:18" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="381" spans="2:18">
       <c r="D381" s="1" t="s">
         <v>531</v>
       </c>
       <c r="R381" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="382" spans="2:18" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="382" spans="2:18">
       <c r="R382" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="384" spans="2:18" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="384" spans="2:18">
       <c r="C384" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4">
       <c r="D385" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -14725,4 +14778,972 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S138" sqref="S138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="16" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D4" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D5" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D6" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D7" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D9" s="13" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C10" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D11" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D12" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D13" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D14" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D16" s="13" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" customHeight="1"/>
+    <row r="18" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D19" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D20" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" customHeight="1"/>
+    <row r="22" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D23" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D24" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D25" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D26" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D27" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C28" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D29" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="15.75" customHeight="1">
+      <c r="E30" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="3:14" ht="15.75" customHeight="1">
+      <c r="D32" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="E33" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D34" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D35" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="C37" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D38" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="C39" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D40" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="C42" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="C44" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D45" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="D46" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="C47" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="18" customHeight="1">
+      <c r="D48" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18" customHeight="1">
+      <c r="D49" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="18" customHeight="1">
+      <c r="B50" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="18" customHeight="1">
+      <c r="C51" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="18" customHeight="1">
+      <c r="D52" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" customHeight="1">
+      <c r="E53" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D54" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" customHeight="1">
+      <c r="E55" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:5" ht="15.75" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D58" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D59" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:5" ht="15.75" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D62" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:5" ht="15.75" customHeight="1">
+      <c r="C64" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D65" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="3:25" ht="15.75" customHeight="1">
+      <c r="C67" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D68" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D69" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D70" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" ht="15.75" customHeight="1"/>
+    <row r="72" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D72" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D73" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+    </row>
+    <row r="74" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+    </row>
+    <row r="75" spans="3:25" ht="15.75" customHeight="1">
+      <c r="C75" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D76" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" ht="15.75" customHeight="1">
+      <c r="E77" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" ht="15.75" customHeight="1">
+      <c r="E78" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D79" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="3:25" ht="15.75" customHeight="1">
+      <c r="D80" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C81" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D82" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E83" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E84" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D85" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E86" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" ht="15.75" customHeight="1">
+      <c r="F87" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" ht="15.75" customHeight="1">
+      <c r="F88" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C89" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D90" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E91" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E92" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" ht="15.75" customHeight="1"/>
+    <row r="94" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D94" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E95" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" ht="15.75" customHeight="1">
+      <c r="E96" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" ht="15.75" customHeight="1"/>
+    <row r="98" spans="3:10" ht="15.75" customHeight="1">
+      <c r="D98" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="3:10" ht="15.75" customHeight="1">
+      <c r="D99" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+    </row>
+    <row r="100" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C100" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="15.75" customHeight="1">
+      <c r="D101" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E102" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E103" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E104" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E105" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" ht="15.75" customHeight="1">
+      <c r="D106" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E107" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E108" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E109" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E110" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E111" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" ht="15.75" customHeight="1">
+      <c r="E112" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" ht="15.75" customHeight="1">
+      <c r="E113" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D114" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+    </row>
+    <row r="115" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D115" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+    </row>
+    <row r="116" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D116" s="17"/>
+      <c r="E116" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+    </row>
+    <row r="117" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D117" s="17"/>
+      <c r="E117" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+    </row>
+    <row r="118" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D118" s="17"/>
+      <c r="E118" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+    </row>
+    <row r="119" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D119" s="17"/>
+      <c r="E119" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+    </row>
+    <row r="120" spans="2:24" ht="15.75" customHeight="1">
+      <c r="B120" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D121" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24" ht="15.75" customHeight="1">
+      <c r="E122" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" ht="15.75" customHeight="1">
+      <c r="E123" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
+      <c r="U123" s="18"/>
+      <c r="V123" s="18"/>
+      <c r="W123" s="18"/>
+      <c r="X123" s="18"/>
+    </row>
+    <row r="124" spans="2:24" ht="15.75" customHeight="1">
+      <c r="E124" s="17"/>
+      <c r="F124" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="18"/>
+      <c r="U124" s="18"/>
+      <c r="V124" s="18"/>
+      <c r="W124" s="18"/>
+      <c r="X124" s="18"/>
+    </row>
+    <row r="125" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D125" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" ht="15.75" customHeight="1">
+      <c r="D126" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24">
+      <c r="B128" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="D129" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="E130" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="E131" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="E132" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="E133" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6">
+      <c r="E135" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6">
+      <c r="E136" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6">
+      <c r="D138" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6">
+      <c r="E139" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6">
+      <c r="E140" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="E141" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="E142" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="F143" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6">
+      <c r="E144" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6">
+      <c r="E145" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6">
+      <c r="E146" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="E147" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6">
+      <c r="E148" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6">
+      <c r="D150" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6">
+      <c r="E151" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6">
+      <c r="E152" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6">
+      <c r="E153" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6">
+      <c r="E154" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="E155" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="D157" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6">
+      <c r="E158" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6">
+      <c r="E159" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>